--- a/EJBComponents/ImageProcessingBenchmark_5/stats/PowerConsumption/PowerConsumption.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark_5/stats/PowerConsumption/PowerConsumption.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Benchmarks\ImageProcessingBenchmark_5\stats\PowerConsumption\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,9 +200,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -250,6 +255,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -339,36 +364,41 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>76.204800000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.6496</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.716000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.122399999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.613999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.727999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.664399999999993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.1584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63.21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABCF-4F86-AC00-2D3AFBFFE1B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -442,36 +472,41 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>38.304000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.102400000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.068799999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.828799999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.069700000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.069700000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.867199999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.137500000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.115199999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ABCF-4F86-AC00-2D3AFBFFE1B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -509,36 +544,41 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>42.722999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.260799999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.206399999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.481600000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.197499999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.197499999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.399500000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.283000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.168999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ABCF-4F86-AC00-2D3AFBFFE1B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -576,36 +616,41 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>35.193599999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.8504</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.584199999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.564799999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.96</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.287999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.665599999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.624000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.699200000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ABCF-4F86-AC00-2D3AFBFFE1B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -642,36 +687,41 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>34.138799999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.388900000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.942</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.059699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.494999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.321299999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.923999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.353999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.1128</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ABCF-4F86-AC00-2D3AFBFFE1B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -709,36 +759,41 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>35.411999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.975200000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.665599999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.287999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.598399999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.598399999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.598399999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.631999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-ABCF-4F86-AC00-2D3AFBFFE1B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -775,36 +830,41 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>31.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.941399999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.531000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.138399999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.8142</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.3094</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.056000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.747199999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.256</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-ABCF-4F86-AC00-2D3AFBFFE1B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -842,36 +902,41 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>34.486199999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.457000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.0884</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.1496</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.795000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.531200000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.860999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.1584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.167200000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-ABCF-4F86-AC00-2D3AFBFFE1B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -909,36 +974,41 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>31.598399999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.652800000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.535</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.670800000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.1495</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.461599999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.953600000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.980000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.514600000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-ABCF-4F86-AC00-2D3AFBFFE1B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -976,36 +1046,41 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>33.78</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.125999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.881599999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.881599999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.881599999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.552399999999992</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.457000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.927</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-ABCF-4F86-AC00-2D3AFBFFE1B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -1043,36 +1118,41 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>33.246900000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.821200000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.092400000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.102599999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.965399999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.851099999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.934199999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.7074</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.339200000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-ABCF-4F86-AC00-2D3AFBFFE1B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -1110,36 +1190,41 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>33.840000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.425200000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.425200000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.190800000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.1584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.828000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.531200000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.531200000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-ABCF-4F86-AC00-2D3AFBFFE1B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -1177,36 +1262,41 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>31.586400000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.378</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.6936</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.610400000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.295999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.041000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.196999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.747899999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-ABCF-4F86-AC00-2D3AFBFFE1B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -1244,36 +1334,41 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>33.78</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.180200000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.8504</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.125999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.860999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.235599999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.269799999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.235599999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.269799999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-ABCF-4F86-AC00-2D3AFBFFE1B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="14"/>
@@ -1311,36 +1406,41 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>31.888800000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.779599999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.3965</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.858799999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.155600000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.4724</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.728999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.573000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.670500000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-ABCF-4F86-AC00-2D3AFBFFE1B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="15"/>
@@ -1378,36 +1478,41 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>37.016400000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.564799999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.463999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.430400000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.817</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.235599999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.235599999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.269799999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.748599999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-ABCF-4F86-AC00-2D3AFBFFE1B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1502,6 +1607,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1627,6 +1752,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -1752,9 +1897,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1807,6 +1952,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1895,36 +2060,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>30.240000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.469999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.469999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D01-43CE-A7CD-2C4F333BF788}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1997,36 +2167,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.359999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D01-43CE-A7CD-2C4F333BF788}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2063,36 +2238,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>15.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.07</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4D01-43CE-A7CD-2C4F333BF788}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2129,36 +2309,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4D01-43CE-A7CD-2C4F333BF788}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2195,36 +2380,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10.44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.07</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5500000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.109999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.199999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.220000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4D01-43CE-A7CD-2C4F333BF788}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2261,36 +2451,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4D01-43CE-A7CD-2C4F333BF788}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2327,36 +2522,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0500000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.57</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4D01-43CE-A7CD-2C4F333BF788}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -2393,36 +2593,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.140000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4D01-43CE-A7CD-2C4F333BF788}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -2460,36 +2665,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3800000000000008</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0399999999999991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0500000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4D01-43CE-A7CD-2C4F333BF788}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -2527,36 +2737,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.37</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4D01-43CE-A7CD-2C4F333BF788}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -2594,36 +2809,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.58</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-4D01-43CE-A7CD-2C4F333BF788}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -2661,36 +2881,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.140000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.140000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-4D01-43CE-A7CD-2C4F333BF788}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -2728,36 +2953,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8.56</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-4D01-43CE-A7CD-2C4F333BF788}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -2795,36 +3025,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-4D01-43CE-A7CD-2C4F333BF788}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="14"/>
@@ -2862,36 +3097,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8.24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.51</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0700000000000012</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-4D01-43CE-A7CD-2C4F333BF788}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="15"/>
@@ -2929,36 +3169,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.140000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-4D01-43CE-A7CD-2C4F333BF788}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3053,6 +3298,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -3173,6 +3438,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -3298,9 +3583,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3441,36 +3726,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC9A-4779-9E80-1ED2B9C31AAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3543,36 +3833,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC9A-4779-9E80-1ED2B9C31AAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3609,10 +3904,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48</c:v>
@@ -3621,24 +3916,29 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.5</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.5</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.5</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.5</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.5</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AC9A-4779-9E80-1ED2B9C31AAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3675,36 +3975,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>54.5</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>56</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AC9A-4779-9E80-1ED2B9C31AAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3741,36 +4046,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>54.5</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.5</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.5</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.5</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.5</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AC9A-4779-9E80-1ED2B9C31AAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3807,36 +4117,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AC9A-4779-9E80-1ED2B9C31AAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -3873,36 +4188,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AC9A-4779-9E80-1ED2B9C31AAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -3939,36 +4259,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-AC9A-4779-9E80-1ED2B9C31AAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -4006,36 +4331,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.5</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-AC9A-4779-9E80-1ED2B9C31AAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -4073,36 +4403,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-AC9A-4779-9E80-1ED2B9C31AAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -4140,36 +4475,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>61.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-AC9A-4779-9E80-1ED2B9C31AAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -4207,28 +4547,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>56</c:v>
@@ -4237,6 +4577,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-AC9A-4779-9E80-1ED2B9C31AAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -4274,36 +4619,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>61.5</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.5</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.5</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-AC9A-4779-9E80-1ED2B9C31AAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -4341,36 +4691,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-AC9A-4779-9E80-1ED2B9C31AAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="14"/>
@@ -4408,36 +4763,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>64.5</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.5</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-AC9A-4779-9E80-1ED2B9C31AAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="15"/>
@@ -4475,16 +4835,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>54.5</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>57</c:v>
@@ -4505,6 +4865,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-AC9A-4779-9E80-1ED2B9C31AAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6312,7 +6677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6323,7 +6688,7 @@
   <dimension ref="A1:AT42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:J40"/>
+      <selection sqref="A1:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6510,139 +6875,121 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="3">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I4" s="3">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J4" s="3">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="3">
-        <v>1814.4</v>
-      </c>
-      <c r="O4" s="3">
-        <v>1387.2</v>
-      </c>
-      <c r="P4" s="3">
-        <v>1398</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1466.4</v>
-      </c>
-      <c r="R4" s="3">
-        <v>1467</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1468.1999999999998</v>
-      </c>
-      <c r="T4" s="3">
-        <v>1468.1999999999998</v>
-      </c>
-      <c r="U4" s="3">
-        <v>1468.8</v>
-      </c>
-      <c r="V4" s="3">
-        <v>1470</v>
-      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
       <c r="Y4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z4" s="7">
         <f xml:space="preserve"> (B4 * N4) / 1000</f>
-        <v>76.204800000000006</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="7">
         <f t="shared" ref="AA4:AH4" si="0" xml:space="preserve"> (C4 * O4) / 1000</f>
-        <v>59.6496</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="7">
         <f t="shared" si="0"/>
-        <v>58.716000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="7">
         <f t="shared" si="0"/>
-        <v>60.122399999999999</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="7">
         <f t="shared" si="0"/>
-        <v>61.613999999999997</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="7">
         <f t="shared" si="0"/>
-        <v>58.727999999999994</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="7">
         <f t="shared" si="0"/>
-        <v>61.664399999999993</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="7">
         <f t="shared" si="0"/>
-        <v>63.1584</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="7">
         <f t="shared" si="0"/>
-        <v>63.21</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL4" s="7">
+      <c r="AL4" s="7" t="e">
         <f>$N6/N6</f>
-        <v>1</v>
-      </c>
-      <c r="AM4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM4" s="7" t="e">
         <f t="shared" ref="AM4:AS4" si="1">$N6/O6</f>
-        <v>1.3079584775086506</v>
-      </c>
-      <c r="AN4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN4" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>1.297854077253219</v>
-      </c>
-      <c r="AO4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO4" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>1.2373158756137479</v>
-      </c>
-      <c r="AP4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP4" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>1.2368098159509204</v>
-      </c>
-      <c r="AQ4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ4" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>1.2357989374744589</v>
-      </c>
-      <c r="AR4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR4" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>1.2357989374744589</v>
-      </c>
-      <c r="AS4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS4" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>1.2352941176470589</v>
-      </c>
-      <c r="AT4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT4" s="7" t="e">
         <f>$N6/V6</f>
-        <v>1.2342857142857144</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
@@ -6650,177 +6997,159 @@
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D5" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E5" s="4">
-        <v>55.5</v>
+        <v>60</v>
       </c>
       <c r="F5" s="4">
-        <v>56.5</v>
+        <v>60</v>
       </c>
       <c r="G5" s="4">
-        <v>56.5</v>
+        <v>60</v>
       </c>
       <c r="H5" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I5" s="4">
-        <v>56.5</v>
+        <v>60</v>
       </c>
       <c r="J5" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="4">
-        <v>684</v>
-      </c>
-      <c r="O5" s="4">
-        <v>680.4</v>
-      </c>
-      <c r="P5" s="4">
-        <v>679.8</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>681.59999999999991</v>
-      </c>
-      <c r="R5" s="4">
-        <v>673.80000000000007</v>
-      </c>
-      <c r="S5" s="4">
-        <v>673.80000000000007</v>
-      </c>
-      <c r="T5" s="4">
-        <v>676.19999999999993</v>
-      </c>
-      <c r="U5" s="4">
-        <v>675</v>
-      </c>
-      <c r="V5" s="4">
-        <v>674.4</v>
-      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
       <c r="Y5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z5" s="7">
         <f xml:space="preserve"> (B5 * N5) / 1000</f>
-        <v>38.304000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="7">
         <f t="shared" ref="AA5" si="2" xml:space="preserve"> (C5 * O5) / 1000</f>
-        <v>38.102400000000003</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="7">
         <f t="shared" ref="AB5" si="3" xml:space="preserve"> (D5 * P5) / 1000</f>
-        <v>38.068799999999996</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" ref="AC5" si="4" xml:space="preserve"> (E5 * Q5) / 1000</f>
-        <v>37.828799999999994</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="7">
         <f t="shared" ref="AD5" si="5" xml:space="preserve"> (F5 * R5) / 1000</f>
-        <v>38.069700000000005</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="7">
         <f t="shared" ref="AE5" si="6" xml:space="preserve"> (G5 * S5) / 1000</f>
-        <v>38.069700000000005</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" ref="AF5" si="7" xml:space="preserve"> (H5 * T5) / 1000</f>
-        <v>37.867199999999997</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="7">
         <f t="shared" ref="AG5" si="8" xml:space="preserve"> (I5 * U5) / 1000</f>
-        <v>38.137500000000003</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="7">
         <f t="shared" ref="AH5" si="9" xml:space="preserve"> (J5 * V5) / 1000</f>
-        <v>39.115199999999994</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL5" s="7">
+      <c r="AL5" s="7" t="e">
         <f>$N7/N7</f>
-        <v>1</v>
-      </c>
-      <c r="AM5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM5" s="7" t="e">
         <f t="shared" ref="AM5" si="10">$N7/O7</f>
-        <v>1.0052910052910053</v>
-      </c>
-      <c r="AN5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN5" s="7" t="e">
         <f t="shared" ref="AN5" si="11">$N7/P7</f>
-        <v>1.0061782877316858</v>
-      </c>
-      <c r="AO5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO5" s="7" t="e">
         <f t="shared" ref="AO5" si="12">$N7/Q7</f>
-        <v>1.0035211267605637</v>
-      </c>
-      <c r="AP5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP5" s="7" t="e">
         <f t="shared" ref="AP5" si="13">$N7/R7</f>
-        <v>1.0151380231522706</v>
-      </c>
-      <c r="AQ5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ5" s="7" t="e">
         <f>$N7/S7</f>
-        <v>1.0151380231522706</v>
-      </c>
-      <c r="AR5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR5" s="7" t="e">
         <f t="shared" ref="AR5" si="14">$N7/T7</f>
-        <v>1.0115350488021295</v>
-      </c>
-      <c r="AS5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS5" s="7" t="e">
         <f t="shared" ref="AS5" si="15">$N7/U7</f>
-        <v>1.0133333333333334</v>
-      </c>
-      <c r="AT5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT5" s="7" t="e">
         <f>$N7/V7</f>
-        <v>1.0142348754448398</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N6" s="5">
         <f>N4/60</f>
-        <v>30.240000000000002</v>
+        <v>0</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" ref="O6:V7" si="16">O4/60</f>
-        <v>23.12</v>
+        <v>0</v>
       </c>
       <c r="P6" s="5">
         <f t="shared" si="16"/>
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="5">
         <f t="shared" si="16"/>
-        <v>24.44</v>
+        <v>0</v>
       </c>
       <c r="R6" s="5">
         <f t="shared" si="16"/>
-        <v>24.45</v>
+        <v>0</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" si="16"/>
-        <v>24.469999999999995</v>
+        <v>0</v>
       </c>
       <c r="T6" s="5">
         <f t="shared" si="16"/>
-        <v>24.469999999999995</v>
+        <v>0</v>
       </c>
       <c r="U6" s="5">
         <f t="shared" si="16"/>
-        <v>24.48</v>
+        <v>0</v>
       </c>
       <c r="V6" s="5">
         <f t="shared" si="16"/>
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -6844,39 +7173,39 @@
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N7" s="5">
         <f>N5/60</f>
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" si="16"/>
-        <v>11.34</v>
+        <v>0</v>
       </c>
       <c r="P7" s="5">
         <f t="shared" si="16"/>
-        <v>11.33</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="5">
         <f t="shared" si="16"/>
-        <v>11.359999999999998</v>
+        <v>0</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" si="16"/>
-        <v>11.23</v>
+        <v>0</v>
       </c>
       <c r="S7" s="5">
         <f t="shared" si="16"/>
-        <v>11.23</v>
+        <v>0</v>
       </c>
       <c r="T7" s="5">
         <f t="shared" si="16"/>
-        <v>11.27</v>
+        <v>0</v>
       </c>
       <c r="U7" s="5">
         <f t="shared" si="16"/>
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="V7" s="5">
         <f t="shared" si="16"/>
-        <v>11.24</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -7024,10 +7353,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="3">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3">
         <v>48</v>
@@ -7036,127 +7365,109 @@
         <v>48</v>
       </c>
       <c r="F9" s="3">
-        <v>47.5</v>
+        <v>48</v>
       </c>
       <c r="G9" s="3">
-        <v>47.5</v>
+        <v>48</v>
       </c>
       <c r="H9" s="3">
-        <v>47.5</v>
+        <v>48</v>
       </c>
       <c r="I9" s="3">
-        <v>47.5</v>
+        <v>48</v>
       </c>
       <c r="J9" s="3">
-        <v>47.5</v>
+        <v>48</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="3">
-        <v>909</v>
-      </c>
-      <c r="O9" s="3">
-        <v>686.4</v>
-      </c>
-      <c r="P9" s="3">
-        <v>691.8</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>739.2</v>
-      </c>
-      <c r="R9" s="3">
-        <v>741</v>
-      </c>
-      <c r="S9" s="3">
-        <v>741</v>
-      </c>
-      <c r="T9" s="3">
-        <v>724.2</v>
-      </c>
-      <c r="U9" s="3">
-        <v>742.80000000000007</v>
-      </c>
-      <c r="V9" s="3">
-        <v>740.4</v>
-      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
       <c r="Y9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z9" s="7">
         <f xml:space="preserve"> (B9 * N9) / 1000</f>
-        <v>42.722999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="7">
         <f t="shared" ref="AA9:AA10" si="17" xml:space="preserve"> (C9 * O9) / 1000</f>
-        <v>32.260799999999996</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="7">
         <f t="shared" ref="AB9:AB10" si="18" xml:space="preserve"> (D9 * P9) / 1000</f>
-        <v>33.206399999999995</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f t="shared" ref="AC9:AC10" si="19" xml:space="preserve"> (E9 * Q9) / 1000</f>
-        <v>35.481600000000007</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="7">
         <f t="shared" ref="AD9:AD10" si="20" xml:space="preserve"> (F9 * R9) / 1000</f>
-        <v>35.197499999999998</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="7">
         <f t="shared" ref="AE9:AE10" si="21" xml:space="preserve"> (G9 * S9) / 1000</f>
-        <v>35.197499999999998</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="7">
         <f t="shared" ref="AF9:AF10" si="22" xml:space="preserve"> (H9 * T9) / 1000</f>
-        <v>34.399500000000003</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="7">
         <f t="shared" ref="AG9:AG10" si="23" xml:space="preserve"> (I9 * U9) / 1000</f>
-        <v>35.283000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="7">
         <f t="shared" ref="AH9:AH10" si="24" xml:space="preserve"> (J9 * V9) / 1000</f>
-        <v>35.168999999999997</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL9" s="7">
+      <c r="AL9" s="7" t="e">
         <f>$N11/N11</f>
-        <v>1</v>
-      </c>
-      <c r="AM9" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM9" s="7" t="e">
         <f t="shared" ref="AM9:AM10" si="25">$N11/O11</f>
-        <v>1.3243006993006994</v>
-      </c>
-      <c r="AN9" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN9" s="7" t="e">
         <f t="shared" ref="AN9:AN10" si="26">$N11/P11</f>
-        <v>1.3139635732870774</v>
-      </c>
-      <c r="AO9" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO9" s="7" t="e">
         <f t="shared" ref="AO9:AO10" si="27">$N11/Q11</f>
-        <v>1.2297077922077921</v>
-      </c>
-      <c r="AP9" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP9" s="7" t="e">
         <f t="shared" ref="AP9:AP10" si="28">$N11/R11</f>
-        <v>1.2267206477732795</v>
-      </c>
-      <c r="AQ9" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ9" s="7" t="e">
         <f t="shared" ref="AQ9" si="29">$N11/S11</f>
-        <v>1.2267206477732795</v>
-      </c>
-      <c r="AR9" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR9" s="7" t="e">
         <f t="shared" ref="AR9:AR10" si="30">$N11/T11</f>
-        <v>1.2551781275890639</v>
-      </c>
-      <c r="AS9" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS9" s="7" t="e">
         <f t="shared" ref="AS9:AS10" si="31">$N11/U11</f>
-        <v>1.2237479806138933</v>
-      </c>
-      <c r="AT9" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT9" s="7" t="e">
         <f>$N11/V11</f>
-        <v>1.2277147487844409</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
@@ -7164,177 +7475,159 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
+        <v>56</v>
+      </c>
+      <c r="C10" s="4">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4">
+        <v>60</v>
+      </c>
+      <c r="E10" s="4">
+        <v>60</v>
+      </c>
+      <c r="F10" s="4">
+        <v>58</v>
+      </c>
+      <c r="G10" s="4">
+        <v>62</v>
+      </c>
+      <c r="H10" s="4">
         <v>52</v>
       </c>
-      <c r="C10" s="4">
+      <c r="I10" s="4">
         <v>52</v>
       </c>
-      <c r="D10" s="4">
-        <v>53</v>
-      </c>
-      <c r="E10" s="4">
-        <v>56</v>
-      </c>
-      <c r="F10" s="4">
-        <v>55</v>
-      </c>
-      <c r="G10" s="4">
-        <v>54</v>
-      </c>
-      <c r="H10" s="4">
-        <v>56</v>
-      </c>
-      <c r="I10" s="4">
-        <v>54.5</v>
-      </c>
       <c r="J10" s="4">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="4">
-        <v>676.8</v>
-      </c>
-      <c r="O10" s="4">
-        <v>670.2</v>
-      </c>
-      <c r="P10" s="4">
-        <v>671.4</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="R10" s="4">
-        <v>672</v>
-      </c>
-      <c r="S10" s="4">
-        <v>672</v>
-      </c>
-      <c r="T10" s="4">
-        <v>672.6</v>
-      </c>
-      <c r="U10" s="4">
-        <v>672</v>
-      </c>
-      <c r="V10" s="4">
-        <v>673.2</v>
-      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
       <c r="Y10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z10" s="7">
         <f xml:space="preserve"> (B10 * N10) / 1000</f>
-        <v>35.193599999999996</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="7">
         <f t="shared" si="17"/>
-        <v>34.8504</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="7">
         <f t="shared" si="18"/>
-        <v>35.584199999999996</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f t="shared" si="19"/>
-        <v>37.564799999999998</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="7">
         <f t="shared" si="20"/>
-        <v>36.96</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="7">
         <f t="shared" si="21"/>
-        <v>36.287999999999997</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="22"/>
-        <v>37.665599999999998</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="7">
         <f t="shared" si="23"/>
-        <v>36.624000000000002</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="7">
         <f t="shared" si="24"/>
-        <v>37.699200000000005</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL10" s="7">
+      <c r="AL10" s="7" t="e">
         <f>$N12/N12</f>
-        <v>1</v>
-      </c>
-      <c r="AM10" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM10" s="7" t="e">
         <f t="shared" si="25"/>
-        <v>1.0098478066248879</v>
-      </c>
-      <c r="AN10" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN10" s="7" t="e">
         <f t="shared" si="26"/>
-        <v>1.0080428954423593</v>
-      </c>
-      <c r="AO10" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO10" s="7" t="e">
         <f t="shared" si="27"/>
-        <v>1.0089445438282647</v>
-      </c>
-      <c r="AP10" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP10" s="7" t="e">
         <f t="shared" si="28"/>
-        <v>1.0071428571428571</v>
-      </c>
-      <c r="AQ10" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ10" s="7" t="e">
         <f>$N12/S12</f>
-        <v>1.0071428571428571</v>
-      </c>
-      <c r="AR10" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR10" s="7" t="e">
         <f t="shared" si="30"/>
-        <v>1.0062444246208742</v>
-      </c>
-      <c r="AS10" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS10" s="7" t="e">
         <f t="shared" si="31"/>
-        <v>1.0071428571428571</v>
-      </c>
-      <c r="AT10" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT10" s="7" t="e">
         <f>$N12/V12</f>
-        <v>1.0053475935828875</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N11" s="5">
         <f>N9/60</f>
-        <v>15.15</v>
+        <v>0</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" ref="O11:V11" si="32">O9/60</f>
-        <v>11.44</v>
+        <v>0</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" si="32"/>
-        <v>11.53</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="5">
         <f t="shared" si="32"/>
-        <v>12.32</v>
+        <v>0</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" si="32"/>
-        <v>12.35</v>
+        <v>0</v>
       </c>
       <c r="S11" s="5">
         <f t="shared" si="32"/>
-        <v>12.35</v>
+        <v>0</v>
       </c>
       <c r="T11" s="5">
         <f t="shared" si="32"/>
-        <v>12.07</v>
+        <v>0</v>
       </c>
       <c r="U11" s="5">
         <f t="shared" si="32"/>
-        <v>12.38</v>
+        <v>0</v>
       </c>
       <c r="V11" s="5">
         <f t="shared" si="32"/>
-        <v>12.34</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -7358,39 +7651,39 @@
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N12" s="5">
         <f>N10/60</f>
-        <v>11.28</v>
+        <v>0</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" ref="O12:V12" si="33">O10/60</f>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="P12" s="5">
         <f t="shared" si="33"/>
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="5">
         <f t="shared" si="33"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="33"/>
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="S12" s="5">
         <f t="shared" si="33"/>
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="T12" s="5">
         <f t="shared" si="33"/>
-        <v>11.21</v>
+        <v>0</v>
       </c>
       <c r="U12" s="5">
         <f t="shared" si="33"/>
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="V12" s="5">
         <f t="shared" si="33"/>
-        <v>11.22</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -7538,139 +7831,121 @@
         <v>1</v>
       </c>
       <c r="B14" s="3">
-        <v>54.5</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3">
-        <v>54.5</v>
+        <v>57</v>
       </c>
       <c r="D14" s="3">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3">
-        <v>54.5</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G14" s="3">
-        <v>54.5</v>
+        <v>58</v>
       </c>
       <c r="H14" s="3">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I14" s="3">
-        <v>54.5</v>
+        <v>58</v>
       </c>
       <c r="J14" s="3">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="3">
-        <v>626.4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>484.20000000000005</v>
-      </c>
-      <c r="P14" s="3">
-        <v>573</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>606.59999999999991</v>
-      </c>
-      <c r="R14" s="3">
-        <v>609</v>
-      </c>
-      <c r="S14" s="3">
-        <v>611.4</v>
-      </c>
-      <c r="T14" s="3">
-        <v>616.79999999999995</v>
-      </c>
-      <c r="U14" s="3">
-        <v>612</v>
-      </c>
-      <c r="V14" s="3">
-        <v>613.20000000000005</v>
-      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
       <c r="Y14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z14" s="7">
         <f xml:space="preserve"> (B14 * N14) / 1000</f>
-        <v>34.138799999999996</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="7">
         <f t="shared" ref="AA14:AA15" si="34" xml:space="preserve"> (C14 * O14) / 1000</f>
-        <v>26.388900000000003</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="7">
         <f t="shared" ref="AB14:AB15" si="35" xml:space="preserve"> (D14 * P14) / 1000</f>
-        <v>30.942</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="7">
         <f t="shared" ref="AC14:AC15" si="36" xml:space="preserve"> (E14 * Q14) / 1000</f>
-        <v>33.059699999999999</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="7">
         <f t="shared" ref="AD14:AD15" si="37" xml:space="preserve"> (F14 * R14) / 1000</f>
-        <v>33.494999999999997</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="7">
         <f t="shared" ref="AE14:AE15" si="38" xml:space="preserve"> (G14 * S14) / 1000</f>
-        <v>33.321299999999994</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="7">
         <f t="shared" ref="AF14:AF15" si="39" xml:space="preserve"> (H14 * T14) / 1000</f>
-        <v>33.923999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="7">
         <f t="shared" ref="AG14:AG15" si="40" xml:space="preserve"> (I14 * U14) / 1000</f>
-        <v>33.353999999999999</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="7">
         <f t="shared" ref="AH14:AH15" si="41" xml:space="preserve"> (J14 * V14) / 1000</f>
-        <v>33.1128</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL14" s="7">
+      <c r="AL14" s="7" t="e">
         <f>$N16/N16</f>
-        <v>1</v>
-      </c>
-      <c r="AM14" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM14" s="7" t="e">
         <f t="shared" ref="AM14:AM15" si="42">$N16/O16</f>
-        <v>1.2936802973977695</v>
-      </c>
-      <c r="AN14" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN14" s="7" t="e">
         <f t="shared" ref="AN14:AN15" si="43">$N16/P16</f>
-        <v>1.0931937172774868</v>
-      </c>
-      <c r="AO14" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO14" s="7" t="e">
         <f t="shared" ref="AO14:AO15" si="44">$N16/Q16</f>
-        <v>1.0326409495548963</v>
-      </c>
-      <c r="AP14" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP14" s="7" t="e">
         <f t="shared" ref="AP14:AP15" si="45">$N16/R16</f>
-        <v>1.0285714285714285</v>
-      </c>
-      <c r="AQ14" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ14" s="7" t="e">
         <f t="shared" ref="AQ14" si="46">$N16/S16</f>
-        <v>1.0245338567222768</v>
-      </c>
-      <c r="AR14" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR14" s="7" t="e">
         <f t="shared" ref="AR14:AR15" si="47">$N16/T16</f>
-        <v>1.0155642023346303</v>
-      </c>
-      <c r="AS14" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS14" s="7" t="e">
         <f t="shared" ref="AS14:AS15" si="48">$N16/U16</f>
-        <v>1.0235294117647058</v>
-      </c>
-      <c r="AT14" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT14" s="7" t="e">
         <f>$N16/V16</f>
-        <v>1.0215264187866926</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
@@ -7678,177 +7953,159 @@
         <v>2</v>
       </c>
       <c r="B15" s="4">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C15" s="4">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D15" s="4">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E15" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F15" s="4">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G15" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I15" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J15" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="4">
-        <v>681</v>
-      </c>
-      <c r="O15" s="4">
-        <v>672</v>
-      </c>
-      <c r="P15" s="4">
-        <v>672.6</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>672.6</v>
-      </c>
-      <c r="R15" s="4">
-        <v>672</v>
-      </c>
-      <c r="S15" s="4">
-        <v>671.4</v>
-      </c>
-      <c r="T15" s="4">
-        <v>671.4</v>
-      </c>
-      <c r="U15" s="4">
-        <v>671.4</v>
-      </c>
-      <c r="V15" s="4">
-        <v>672</v>
-      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
       <c r="Y15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z15" s="7">
         <f xml:space="preserve"> (B15 * N15) / 1000</f>
-        <v>35.411999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="7">
         <f t="shared" si="34"/>
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="7">
         <f t="shared" si="35"/>
-        <v>34.975200000000001</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="7">
         <f t="shared" si="36"/>
-        <v>37.665599999999998</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="7">
         <f t="shared" si="37"/>
-        <v>36.287999999999997</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="7">
         <f t="shared" si="38"/>
-        <v>37.598399999999998</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="7">
         <f t="shared" si="39"/>
-        <v>37.598399999999998</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="7">
         <f t="shared" si="40"/>
-        <v>37.598399999999998</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="7">
         <f t="shared" si="41"/>
-        <v>37.631999999999998</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL15" s="7">
+      <c r="AL15" s="7" t="e">
         <f>$N17/N17</f>
-        <v>1</v>
-      </c>
-      <c r="AM15" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM15" s="7" t="e">
         <f t="shared" si="42"/>
-        <v>1.0133928571428572</v>
-      </c>
-      <c r="AN15" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN15" s="7" t="e">
         <f t="shared" si="43"/>
-        <v>1.0124888492417483</v>
-      </c>
-      <c r="AO15" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO15" s="7" t="e">
         <f t="shared" si="44"/>
-        <v>1.0124888492417483</v>
-      </c>
-      <c r="AP15" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP15" s="7" t="e">
         <f t="shared" si="45"/>
-        <v>1.0133928571428572</v>
-      </c>
-      <c r="AQ15" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ15" s="7" t="e">
         <f>$N17/S17</f>
-        <v>1.0142984807864164</v>
-      </c>
-      <c r="AR15" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR15" s="7" t="e">
         <f t="shared" si="47"/>
-        <v>1.0142984807864164</v>
-      </c>
-      <c r="AS15" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS15" s="7" t="e">
         <f t="shared" si="48"/>
-        <v>1.0142984807864164</v>
-      </c>
-      <c r="AT15" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT15" s="7" t="e">
         <f>$N17/V17</f>
-        <v>1.0133928571428572</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N16" s="5">
         <f>N14/60</f>
-        <v>10.44</v>
+        <v>0</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" ref="O16:V16" si="49">O14/60</f>
-        <v>8.07</v>
+        <v>0</v>
       </c>
       <c r="P16" s="5">
         <f t="shared" si="49"/>
-        <v>9.5500000000000007</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="5">
         <f t="shared" si="49"/>
-        <v>10.109999999999998</v>
+        <v>0</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" si="49"/>
-        <v>10.15</v>
+        <v>0</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" si="49"/>
-        <v>10.19</v>
+        <v>0</v>
       </c>
       <c r="T16" s="5">
         <f t="shared" si="49"/>
-        <v>10.28</v>
+        <v>0</v>
       </c>
       <c r="U16" s="5">
         <f t="shared" si="49"/>
-        <v>10.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="V16" s="5">
         <f t="shared" si="49"/>
-        <v>10.220000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -7872,39 +8129,39 @@
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N17" s="5">
         <f>N15/60</f>
-        <v>11.35</v>
+        <v>0</v>
       </c>
       <c r="O17" s="5">
         <f t="shared" ref="O17:V17" si="50">O15/60</f>
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="P17" s="5">
         <f t="shared" si="50"/>
-        <v>11.21</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="5">
         <f t="shared" si="50"/>
-        <v>11.21</v>
+        <v>0</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" si="50"/>
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" si="50"/>
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="T17" s="5">
         <f t="shared" si="50"/>
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="U17" s="5">
         <f t="shared" si="50"/>
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="V17" s="5">
         <f t="shared" si="50"/>
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -8052,139 +8309,121 @@
         <v>1</v>
       </c>
       <c r="B19" s="3">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F19" s="3">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G19" s="3">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H19" s="3">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I19" s="3">
-        <v>56.5</v>
+        <v>72</v>
       </c>
       <c r="J19" s="3">
-        <v>57.5</v>
+        <v>72</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="3">
-        <v>555</v>
-      </c>
-      <c r="O19" s="3">
-        <v>490.2</v>
-      </c>
-      <c r="P19" s="3">
-        <v>483.00000000000006</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>511.2</v>
-      </c>
-      <c r="R19" s="3">
-        <v>540.6</v>
-      </c>
-      <c r="S19" s="3">
-        <v>514.20000000000005</v>
-      </c>
-      <c r="T19" s="3">
-        <v>501</v>
-      </c>
-      <c r="U19" s="3">
-        <v>508.8</v>
-      </c>
-      <c r="V19" s="3">
-        <v>508.8</v>
-      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
       <c r="Y19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z19" s="7">
         <f xml:space="preserve"> (B19 * N19) / 1000</f>
-        <v>31.08</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="7">
         <f t="shared" ref="AA19:AA20" si="51" xml:space="preserve"> (C19 * O19) / 1000</f>
-        <v>27.941399999999998</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="7">
         <f t="shared" ref="AB19:AB20" si="52" xml:space="preserve"> (D19 * P19) / 1000</f>
-        <v>27.531000000000002</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f t="shared" ref="AC19:AC20" si="53" xml:space="preserve"> (E19 * Q19) / 1000</f>
-        <v>29.138399999999997</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="7">
         <f t="shared" ref="AD19:AD20" si="54" xml:space="preserve"> (F19 * R19) / 1000</f>
-        <v>30.8142</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="7">
         <f t="shared" ref="AE19:AE20" si="55" xml:space="preserve"> (G19 * S19) / 1000</f>
-        <v>29.3094</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="7">
         <f t="shared" ref="AF19:AF20" si="56" xml:space="preserve"> (H19 * T19) / 1000</f>
-        <v>28.056000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="7">
         <f t="shared" ref="AG19:AG20" si="57" xml:space="preserve"> (I19 * U19) / 1000</f>
-        <v>28.747199999999999</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="7">
         <f t="shared" ref="AH19:AH20" si="58" xml:space="preserve"> (J19 * V19) / 1000</f>
-        <v>29.256</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL19" s="7">
+      <c r="AL19" s="7" t="e">
         <f>$N21/N21</f>
-        <v>1</v>
-      </c>
-      <c r="AM19" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM19" s="7" t="e">
         <f t="shared" ref="AM19:AM20" si="59">$N21/O21</f>
-        <v>1.1321909424724603</v>
-      </c>
-      <c r="AN19" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN19" s="7" t="e">
         <f t="shared" ref="AN19:AN20" si="60">$N21/P21</f>
-        <v>1.1490683229813663</v>
-      </c>
-      <c r="AO19" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO19" s="7" t="e">
         <f t="shared" ref="AO19:AO20" si="61">$N21/Q21</f>
-        <v>1.085680751173709</v>
-      </c>
-      <c r="AP19" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP19" s="7" t="e">
         <f t="shared" ref="AP19:AP20" si="62">$N21/R21</f>
-        <v>1.0266370699223086</v>
-      </c>
-      <c r="AQ19" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ19" s="7" t="e">
         <f t="shared" ref="AQ19" si="63">$N21/S21</f>
-        <v>1.0793465577596266</v>
-      </c>
-      <c r="AR19" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR19" s="7" t="e">
         <f t="shared" ref="AR19:AR20" si="64">$N21/T21</f>
-        <v>1.1077844311377245</v>
-      </c>
-      <c r="AS19" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS19" s="7" t="e">
         <f t="shared" ref="AS19:AS20" si="65">$N21/U21</f>
-        <v>1.0908018867924527</v>
-      </c>
-      <c r="AT19" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT19" s="7" t="e">
         <f>$N21/V21</f>
-        <v>1.0908018867924527</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
@@ -8192,177 +8431,159 @@
         <v>2</v>
       </c>
       <c r="B20" s="4">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C20" s="4">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D20" s="4">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E20" s="4">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F20" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G20" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H20" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I20" s="4">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J20" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="4">
-        <v>676.19999999999993</v>
-      </c>
-      <c r="O20" s="4">
-        <v>669</v>
-      </c>
-      <c r="P20" s="4">
-        <v>668.40000000000009</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>669.6</v>
-      </c>
-      <c r="R20" s="4">
-        <v>669</v>
-      </c>
-      <c r="S20" s="4">
-        <v>670.2</v>
-      </c>
-      <c r="T20" s="4">
-        <v>670.2</v>
-      </c>
-      <c r="U20" s="4">
-        <v>669.6</v>
-      </c>
-      <c r="V20" s="4">
-        <v>669.6</v>
-      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
       <c r="Y20" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z20" s="7">
         <f xml:space="preserve"> (B20 * N20) / 1000</f>
-        <v>34.486199999999997</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="7">
         <f t="shared" si="51"/>
-        <v>35.457000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="7">
         <f t="shared" si="52"/>
-        <v>34.0884</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f t="shared" si="53"/>
-        <v>34.1496</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="7">
         <f t="shared" si="54"/>
-        <v>36.795000000000002</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="7">
         <f t="shared" si="55"/>
-        <v>37.531200000000005</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="7">
         <f t="shared" si="56"/>
-        <v>36.860999999999997</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="7">
         <f t="shared" si="57"/>
-        <v>36.1584</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="7">
         <f t="shared" si="58"/>
-        <v>38.167200000000001</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL20" s="7">
+      <c r="AL20" s="7" t="e">
         <f>$N22/N22</f>
-        <v>1</v>
-      </c>
-      <c r="AM20" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM20" s="7" t="e">
         <f t="shared" si="59"/>
-        <v>1.010762331838565</v>
-      </c>
-      <c r="AN20" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN20" s="7" t="e">
         <f t="shared" si="60"/>
-        <v>1.0116696588868939</v>
-      </c>
-      <c r="AO20" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO20" s="7" t="e">
         <f t="shared" si="61"/>
-        <v>1.0098566308243726</v>
-      </c>
-      <c r="AP20" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP20" s="7" t="e">
         <f t="shared" si="62"/>
-        <v>1.010762331838565</v>
-      </c>
-      <c r="AQ20" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ20" s="7" t="e">
         <f>$N22/S22</f>
-        <v>1.0089525514771709</v>
-      </c>
-      <c r="AR20" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR20" s="7" t="e">
         <f t="shared" si="64"/>
-        <v>1.0089525514771709</v>
-      </c>
-      <c r="AS20" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS20" s="7" t="e">
         <f t="shared" si="65"/>
-        <v>1.0098566308243726</v>
-      </c>
-      <c r="AT20" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT20" s="7" t="e">
         <f>$N22/V22</f>
-        <v>1.0098566308243726</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N21" s="5">
         <f>N19/60</f>
-        <v>9.25</v>
+        <v>0</v>
       </c>
       <c r="O21" s="5">
         <f t="shared" ref="O21:V21" si="66">O19/60</f>
-        <v>8.17</v>
+        <v>0</v>
       </c>
       <c r="P21" s="5">
         <f t="shared" si="66"/>
-        <v>8.0500000000000007</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="5">
         <f t="shared" si="66"/>
-        <v>8.52</v>
+        <v>0</v>
       </c>
       <c r="R21" s="5">
         <f t="shared" si="66"/>
-        <v>9.01</v>
+        <v>0</v>
       </c>
       <c r="S21" s="5">
         <f t="shared" si="66"/>
-        <v>8.57</v>
+        <v>0</v>
       </c>
       <c r="T21" s="5">
         <f t="shared" si="66"/>
-        <v>8.35</v>
+        <v>0</v>
       </c>
       <c r="U21" s="5">
         <f t="shared" si="66"/>
-        <v>8.48</v>
+        <v>0</v>
       </c>
       <c r="V21" s="5">
         <f t="shared" si="66"/>
-        <v>8.48</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
@@ -8386,39 +8607,39 @@
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N22" s="5">
         <f>N20/60</f>
-        <v>11.27</v>
+        <v>0</v>
       </c>
       <c r="O22" s="5">
         <f t="shared" ref="O22:V22" si="67">O20/60</f>
-        <v>11.15</v>
+        <v>0</v>
       </c>
       <c r="P22" s="5">
         <f t="shared" si="67"/>
-        <v>11.140000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="5">
         <f t="shared" si="67"/>
-        <v>11.16</v>
+        <v>0</v>
       </c>
       <c r="R22" s="5">
         <f t="shared" si="67"/>
-        <v>11.15</v>
+        <v>0</v>
       </c>
       <c r="S22" s="5">
         <f t="shared" si="67"/>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="T22" s="5">
         <f t="shared" si="67"/>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="U22" s="5">
         <f t="shared" si="67"/>
-        <v>11.16</v>
+        <v>0</v>
       </c>
       <c r="V22" s="5">
         <f t="shared" si="67"/>
-        <v>11.16</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
@@ -8566,139 +8787,121 @@
         <v>1</v>
       </c>
       <c r="B24" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" s="3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D24" s="3">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E24" s="3">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F24" s="3">
-        <v>58.5</v>
+        <v>67</v>
       </c>
       <c r="G24" s="3">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H24" s="3">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="I24" s="3">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="J24" s="3">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="3">
-        <v>544.79999999999995</v>
-      </c>
-      <c r="O24" s="3">
-        <v>494.40000000000003</v>
-      </c>
-      <c r="P24" s="3">
-        <v>435</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>502.80000000000007</v>
-      </c>
-      <c r="R24" s="3">
-        <v>447</v>
-      </c>
-      <c r="S24" s="3">
-        <v>482.4</v>
-      </c>
-      <c r="T24" s="3">
-        <v>499.20000000000005</v>
-      </c>
-      <c r="U24" s="3">
-        <v>483.00000000000006</v>
-      </c>
-      <c r="V24" s="3">
-        <v>449.40000000000003</v>
-      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
       <c r="Y24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z24" s="7">
         <f xml:space="preserve"> (B24 * N24) / 1000</f>
-        <v>31.598399999999998</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="7">
         <f t="shared" ref="AA24:AA25" si="68" xml:space="preserve"> (C24 * O24) / 1000</f>
-        <v>30.652800000000003</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="7">
         <f t="shared" ref="AB24:AB25" si="69" xml:space="preserve"> (D24 * P24) / 1000</f>
-        <v>26.535</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="7">
         <f t="shared" ref="AC24:AC25" si="70" xml:space="preserve"> (E24 * Q24) / 1000</f>
-        <v>30.670800000000003</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="7">
         <f t="shared" ref="AD24:AD25" si="71" xml:space="preserve"> (F24 * R24) / 1000</f>
-        <v>26.1495</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="7">
         <f t="shared" ref="AE24:AE25" si="72" xml:space="preserve"> (G24 * S24) / 1000</f>
-        <v>28.461599999999997</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="7">
         <f t="shared" ref="AF24:AF25" si="73" xml:space="preserve"> (H24 * T24) / 1000</f>
-        <v>28.953600000000002</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="7">
         <f t="shared" ref="AG24:AG25" si="74" xml:space="preserve"> (I24 * U24) / 1000</f>
-        <v>28.980000000000004</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="7">
         <f t="shared" ref="AH24:AH25" si="75" xml:space="preserve"> (J24 * V24) / 1000</f>
-        <v>26.514600000000002</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL24" s="7">
+      <c r="AL24" s="7" t="e">
         <f>$N26/N26</f>
-        <v>1</v>
-      </c>
-      <c r="AM24" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM24" s="7" t="e">
         <f t="shared" ref="AM24:AM25" si="76">$N26/O26</f>
-        <v>1.1019417475728155</v>
-      </c>
-      <c r="AN24" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN24" s="7" t="e">
         <f t="shared" ref="AN24:AN25" si="77">$N26/P26</f>
-        <v>1.2524137931034482</v>
-      </c>
-      <c r="AO24" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO24" s="7" t="e">
         <f t="shared" ref="AO24:AO25" si="78">$N26/Q26</f>
-        <v>1.0835322195704056</v>
-      </c>
-      <c r="AP24" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP24" s="7" t="e">
         <f t="shared" ref="AP24:AP25" si="79">$N26/R26</f>
-        <v>1.2187919463087249</v>
-      </c>
-      <c r="AQ24" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ24" s="7" t="e">
         <f t="shared" ref="AQ24" si="80">$N26/S26</f>
-        <v>1.1293532338308458</v>
-      </c>
-      <c r="AR24" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR24" s="7" t="e">
         <f t="shared" ref="AR24:AR25" si="81">$N26/T26</f>
-        <v>1.0913461538461537</v>
-      </c>
-      <c r="AS24" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS24" s="7" t="e">
         <f t="shared" ref="AS24:AS25" si="82">$N26/U26</f>
-        <v>1.1279503105590061</v>
-      </c>
-      <c r="AT24" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT24" s="7" t="e">
         <f>$N26/V26</f>
-        <v>1.2122830440587449</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
@@ -8706,177 +8909,159 @@
         <v>2</v>
       </c>
       <c r="B25" s="4">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C25" s="4">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D25" s="4">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E25" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F25" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G25" s="4">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H25" s="4">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I25" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J25" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="4">
-        <v>675.6</v>
-      </c>
-      <c r="O25" s="4">
-        <v>682.19999999999993</v>
-      </c>
-      <c r="P25" s="4">
-        <v>669</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="R25" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="S25" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="T25" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="U25" s="4">
-        <v>669</v>
-      </c>
-      <c r="V25" s="4">
-        <v>671.4</v>
-      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
       <c r="Y25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z25" s="7">
         <f xml:space="preserve"> (B25 * N25) / 1000</f>
-        <v>33.78</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="7">
         <f t="shared" si="68"/>
-        <v>34.11</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="7">
         <f t="shared" si="69"/>
-        <v>36.125999999999998</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="7">
         <f t="shared" si="70"/>
-        <v>34.881599999999999</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="7">
         <f t="shared" si="71"/>
-        <v>34.881599999999999</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="7">
         <f t="shared" si="72"/>
-        <v>34.881599999999999</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="7">
         <f t="shared" si="73"/>
-        <v>35.552399999999992</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="7">
         <f t="shared" si="74"/>
-        <v>35.457000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="7">
         <f t="shared" si="75"/>
-        <v>36.927</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL25" s="7">
+      <c r="AL25" s="7" t="e">
         <f>$N27/N27</f>
-        <v>1</v>
-      </c>
-      <c r="AM25" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM25" s="7" t="e">
         <f t="shared" si="76"/>
-        <v>0.9903254177660511</v>
-      </c>
-      <c r="AN25" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN25" s="7" t="e">
         <f t="shared" si="77"/>
-        <v>1.0098654708520178</v>
-      </c>
-      <c r="AO25" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO25" s="7" t="e">
         <f t="shared" si="78"/>
-        <v>1.0071556350626119</v>
-      </c>
-      <c r="AP25" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP25" s="7" t="e">
         <f t="shared" si="79"/>
-        <v>1.0071556350626119</v>
-      </c>
-      <c r="AQ25" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ25" s="7" t="e">
         <f>$N27/S27</f>
-        <v>1.0071556350626119</v>
-      </c>
-      <c r="AR25" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR25" s="7" t="e">
         <f t="shared" si="81"/>
-        <v>1.0071556350626119</v>
-      </c>
-      <c r="AS25" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS25" s="7" t="e">
         <f t="shared" si="82"/>
-        <v>1.0098654708520178</v>
-      </c>
-      <c r="AT25" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT25" s="7" t="e">
         <f>$N27/V27</f>
-        <v>1.0062555853440571</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N26" s="5">
         <f>N24/60</f>
-        <v>9.08</v>
+        <v>0</v>
       </c>
       <c r="O26" s="5">
         <f t="shared" ref="O26:V26" si="83">O24/60</f>
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="P26" s="5">
         <f t="shared" si="83"/>
-        <v>7.25</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="5">
         <f t="shared" si="83"/>
-        <v>8.3800000000000008</v>
+        <v>0</v>
       </c>
       <c r="R26" s="5">
         <f t="shared" si="83"/>
-        <v>7.45</v>
+        <v>0</v>
       </c>
       <c r="S26" s="5">
         <f t="shared" si="83"/>
-        <v>8.0399999999999991</v>
+        <v>0</v>
       </c>
       <c r="T26" s="5">
         <f t="shared" si="83"/>
-        <v>8.32</v>
+        <v>0</v>
       </c>
       <c r="U26" s="5">
         <f t="shared" si="83"/>
-        <v>8.0500000000000007</v>
+        <v>0</v>
       </c>
       <c r="V26" s="5">
         <f t="shared" si="83"/>
-        <v>7.49</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
@@ -8900,39 +9085,39 @@
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N27" s="5">
         <f>N25/60</f>
-        <v>11.26</v>
+        <v>0</v>
       </c>
       <c r="O27" s="5">
         <f t="shared" ref="O27:V27" si="84">O25/60</f>
-        <v>11.37</v>
+        <v>0</v>
       </c>
       <c r="P27" s="5">
         <f t="shared" si="84"/>
-        <v>11.15</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="5">
         <f t="shared" si="84"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" si="84"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="S27" s="5">
         <f t="shared" si="84"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="T27" s="5">
         <f t="shared" si="84"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="U27" s="5">
         <f t="shared" si="84"/>
-        <v>11.15</v>
+        <v>0</v>
       </c>
       <c r="V27" s="5">
         <f t="shared" si="84"/>
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
@@ -9080,139 +9265,121 @@
         <v>1</v>
       </c>
       <c r="B29" s="3">
-        <v>61.5</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D29" s="3">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E29" s="3">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F29" s="3">
-        <v>63.5</v>
+        <v>72</v>
       </c>
       <c r="G29" s="3">
-        <v>63.5</v>
+        <v>72</v>
       </c>
       <c r="H29" s="3">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I29" s="3">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J29" s="3">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="3">
-        <v>540.6</v>
-      </c>
-      <c r="O29" s="3">
-        <v>432.6</v>
-      </c>
-      <c r="P29" s="3">
-        <v>334.8</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>430.2</v>
-      </c>
-      <c r="R29" s="3">
-        <v>440.4</v>
-      </c>
-      <c r="S29" s="3">
-        <v>438.59999999999997</v>
-      </c>
-      <c r="T29" s="3">
-        <v>443.4</v>
-      </c>
-      <c r="U29" s="3">
-        <v>439.8</v>
-      </c>
-      <c r="V29" s="3">
-        <v>442.8</v>
-      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
       <c r="Y29" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z29" s="7">
         <f xml:space="preserve"> (B29 * N29) / 1000</f>
-        <v>33.246900000000004</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="7">
         <f t="shared" ref="AA29:AA30" si="85" xml:space="preserve"> (C29 * O29) / 1000</f>
-        <v>26.821200000000001</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="7">
         <f t="shared" ref="AB29:AB30" si="86" xml:space="preserve"> (D29 * P29) / 1000</f>
-        <v>21.092400000000001</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="7">
         <f t="shared" ref="AC29:AC30" si="87" xml:space="preserve"> (E29 * Q29) / 1000</f>
-        <v>27.102599999999999</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="7">
         <f t="shared" ref="AD29:AD30" si="88" xml:space="preserve"> (F29 * R29) / 1000</f>
-        <v>27.965399999999999</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="7">
         <f t="shared" ref="AE29:AE30" si="89" xml:space="preserve"> (G29 * S29) / 1000</f>
-        <v>27.851099999999999</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="7">
         <f t="shared" ref="AF29:AF30" si="90" xml:space="preserve"> (H29 * T29) / 1000</f>
-        <v>27.934199999999997</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="7">
         <f t="shared" ref="AG29:AG30" si="91" xml:space="preserve"> (I29 * U29) / 1000</f>
-        <v>27.7074</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="7">
         <f t="shared" ref="AH29:AH30" si="92" xml:space="preserve"> (J29 * V29) / 1000</f>
-        <v>28.339200000000002</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL29" s="7">
+      <c r="AL29" s="7" t="e">
         <f>$N31/N31</f>
-        <v>1</v>
-      </c>
-      <c r="AM29" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM29" s="7" t="e">
         <f t="shared" ref="AM29:AM30" si="93">$N31/O31</f>
-        <v>1.2496532593619971</v>
-      </c>
-      <c r="AN29" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN29" s="7" t="e">
         <f t="shared" ref="AN29:AN30" si="94">$N31/P31</f>
-        <v>1.6146953405017921</v>
-      </c>
-      <c r="AO29" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO29" s="7" t="e">
         <f t="shared" ref="AO29:AO30" si="95">$N31/Q31</f>
-        <v>1.2566248256624826</v>
-      </c>
-      <c r="AP29" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP29" s="7" t="e">
         <f t="shared" ref="AP29:AP30" si="96">$N31/R31</f>
-        <v>1.2275204359673024</v>
-      </c>
-      <c r="AQ29" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ29" s="7" t="e">
         <f t="shared" ref="AQ29" si="97">$N31/S31</f>
-        <v>1.2325581395348837</v>
-      </c>
-      <c r="AR29" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR29" s="7" t="e">
         <f t="shared" ref="AR29:AR30" si="98">$N31/T31</f>
-        <v>1.2192151556156969</v>
-      </c>
-      <c r="AS29" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS29" s="7" t="e">
         <f t="shared" ref="AS29:AS30" si="99">$N31/U31</f>
-        <v>1.2291950886766712</v>
-      </c>
-      <c r="AT29" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT29" s="7" t="e">
         <f>$N31/V31</f>
-        <v>1.2208672086720866</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
@@ -9220,28 +9387,28 @@
         <v>2</v>
       </c>
       <c r="B30" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C30" s="4">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D30" s="4">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E30" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F30" s="4">
+        <v>58</v>
+      </c>
+      <c r="G30" s="4">
+        <v>58</v>
+      </c>
+      <c r="H30" s="4">
+        <v>56</v>
+      </c>
+      <c r="I30" s="4">
         <v>54</v>
-      </c>
-      <c r="G30" s="4">
-        <v>54</v>
-      </c>
-      <c r="H30" s="4">
-        <v>55</v>
-      </c>
-      <c r="I30" s="4">
-        <v>56</v>
       </c>
       <c r="J30" s="4">
         <v>56</v>
@@ -9249,148 +9416,130 @@
       <c r="M30" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="4">
-        <v>676.8</v>
-      </c>
-      <c r="O30" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="P30" s="4">
-        <v>668.40000000000009</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>668.40000000000009</v>
-      </c>
-      <c r="R30" s="4">
-        <v>670.2</v>
-      </c>
-      <c r="S30" s="4">
-        <v>669.6</v>
-      </c>
-      <c r="T30" s="4">
-        <v>669.6</v>
-      </c>
-      <c r="U30" s="4">
-        <v>670.2</v>
-      </c>
-      <c r="V30" s="4">
-        <v>670.2</v>
-      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
       <c r="Y30" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z30" s="7">
         <f xml:space="preserve"> (B30 * N30) / 1000</f>
-        <v>33.840000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="7">
         <f t="shared" si="85"/>
-        <v>33.54</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="7">
         <f t="shared" si="86"/>
-        <v>35.425200000000004</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="7">
         <f t="shared" si="87"/>
-        <v>35.425200000000004</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="7">
         <f t="shared" si="88"/>
-        <v>36.190800000000003</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="7">
         <f t="shared" si="89"/>
-        <v>36.1584</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="7">
         <f t="shared" si="90"/>
-        <v>36.828000000000003</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="7">
         <f t="shared" si="91"/>
-        <v>37.531200000000005</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="7">
         <f t="shared" si="92"/>
-        <v>37.531200000000005</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL30" s="7">
+      <c r="AL30" s="7" t="e">
         <f>$N32/N32</f>
-        <v>1</v>
-      </c>
-      <c r="AM30" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM30" s="7" t="e">
         <f t="shared" si="93"/>
-        <v>1.0089445438282647</v>
-      </c>
-      <c r="AN30" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN30" s="7" t="e">
         <f t="shared" si="94"/>
-        <v>1.0125673249551164</v>
-      </c>
-      <c r="AO30" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO30" s="7" t="e">
         <f t="shared" si="95"/>
-        <v>1.0125673249551164</v>
-      </c>
-      <c r="AP30" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP30" s="7" t="e">
         <f t="shared" si="96"/>
-        <v>1.0098478066248879</v>
-      </c>
-      <c r="AQ30" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ30" s="7" t="e">
         <f>$N32/S32</f>
-        <v>1.010752688172043</v>
-      </c>
-      <c r="AR30" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR30" s="7" t="e">
         <f t="shared" si="98"/>
-        <v>1.010752688172043</v>
-      </c>
-      <c r="AS30" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS30" s="7" t="e">
         <f t="shared" si="99"/>
-        <v>1.0098478066248879</v>
-      </c>
-      <c r="AT30" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT30" s="7" t="e">
         <f>$N32/V32</f>
-        <v>1.0098478066248879</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N31" s="5">
         <f>N29/60</f>
-        <v>9.01</v>
+        <v>0</v>
       </c>
       <c r="O31" s="5">
         <f t="shared" ref="O31:V31" si="100">O29/60</f>
-        <v>7.21</v>
+        <v>0</v>
       </c>
       <c r="P31" s="5">
         <f t="shared" si="100"/>
-        <v>5.58</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="5">
         <f t="shared" si="100"/>
-        <v>7.17</v>
+        <v>0</v>
       </c>
       <c r="R31" s="5">
         <f t="shared" si="100"/>
-        <v>7.34</v>
+        <v>0</v>
       </c>
       <c r="S31" s="5">
         <f t="shared" si="100"/>
-        <v>7.31</v>
+        <v>0</v>
       </c>
       <c r="T31" s="5">
         <f t="shared" si="100"/>
-        <v>7.39</v>
+        <v>0</v>
       </c>
       <c r="U31" s="5">
         <f t="shared" si="100"/>
-        <v>7.33</v>
+        <v>0</v>
       </c>
       <c r="V31" s="5">
         <f t="shared" si="100"/>
-        <v>7.38</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
@@ -9414,39 +9563,39 @@
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N32" s="5">
         <f>N30/60</f>
-        <v>11.28</v>
+        <v>0</v>
       </c>
       <c r="O32" s="5">
         <f t="shared" ref="O32:V32" si="101">O30/60</f>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="P32" s="5">
         <f t="shared" si="101"/>
-        <v>11.140000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="5">
         <f t="shared" si="101"/>
-        <v>11.140000000000002</v>
+        <v>0</v>
       </c>
       <c r="R32" s="5">
         <f t="shared" si="101"/>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="S32" s="5">
         <f t="shared" si="101"/>
-        <v>11.16</v>
+        <v>0</v>
       </c>
       <c r="T32" s="5">
         <f t="shared" si="101"/>
-        <v>11.16</v>
+        <v>0</v>
       </c>
       <c r="U32" s="5">
         <f t="shared" si="101"/>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="V32" s="5">
         <f t="shared" si="101"/>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
@@ -9594,139 +9743,121 @@
         <v>1</v>
       </c>
       <c r="B34" s="3">
-        <v>61.5</v>
+        <v>57</v>
       </c>
       <c r="C34" s="3">
         <v>65</v>
       </c>
       <c r="D34" s="3">
-        <v>65.5</v>
+        <v>71</v>
       </c>
       <c r="E34" s="3">
-        <v>65.5</v>
+        <v>72</v>
       </c>
       <c r="F34" s="3">
-        <v>65.5</v>
+        <v>72</v>
       </c>
       <c r="G34" s="3">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H34" s="3">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I34" s="3">
-        <v>64.5</v>
+        <v>73</v>
       </c>
       <c r="J34" s="3">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N34" s="3">
-        <v>513.6</v>
-      </c>
-      <c r="O34" s="3">
-        <v>421.2</v>
-      </c>
-      <c r="P34" s="3">
-        <v>331.2</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>436.8</v>
-      </c>
-      <c r="R34" s="3">
-        <v>432</v>
-      </c>
-      <c r="S34" s="3">
-        <v>431.40000000000003</v>
-      </c>
-      <c r="T34" s="3">
-        <v>433.8</v>
-      </c>
-      <c r="U34" s="3">
-        <v>430.2</v>
-      </c>
-      <c r="V34" s="3">
-        <v>432</v>
-      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
       <c r="Y34" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z34" s="7">
         <f xml:space="preserve"> (B34 * N34) / 1000</f>
-        <v>31.586400000000001</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="7">
         <f t="shared" ref="AA34:AA35" si="102" xml:space="preserve"> (C34 * O34) / 1000</f>
-        <v>27.378</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="7">
         <f t="shared" ref="AB34:AB35" si="103" xml:space="preserve"> (D34 * P34) / 1000</f>
-        <v>21.6936</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="7">
         <f t="shared" ref="AC34:AC35" si="104" xml:space="preserve"> (E34 * Q34) / 1000</f>
-        <v>28.610400000000002</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="7">
         <f t="shared" ref="AD34:AD35" si="105" xml:space="preserve"> (F34 * R34) / 1000</f>
-        <v>28.295999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="7">
         <f t="shared" ref="AE34:AE35" si="106" xml:space="preserve"> (G34 * S34) / 1000</f>
-        <v>28.041000000000004</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="7">
         <f t="shared" ref="AF34:AF35" si="107" xml:space="preserve"> (H34 * T34) / 1000</f>
-        <v>28.196999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="7">
         <f t="shared" ref="AG34:AG35" si="108" xml:space="preserve"> (I34 * U34) / 1000</f>
-        <v>27.747899999999998</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="7">
         <f t="shared" ref="AH34:AH35" si="109" xml:space="preserve"> (J34 * V34) / 1000</f>
-        <v>28.08</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL34" s="7">
+      <c r="AL34" s="7" t="e">
         <f>$N36/N36</f>
-        <v>1</v>
-      </c>
-      <c r="AM34" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM34" s="7" t="e">
         <f t="shared" ref="AM34:AM35" si="110">$N36/O36</f>
-        <v>1.2193732193732194</v>
-      </c>
-      <c r="AN34" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN34" s="7" t="e">
         <f t="shared" ref="AN34:AN35" si="111">$N36/P36</f>
-        <v>1.5507246376811596</v>
-      </c>
-      <c r="AO34" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO34" s="7" t="e">
         <f t="shared" ref="AO34:AO35" si="112">$N36/Q36</f>
-        <v>1.1758241758241759</v>
-      </c>
-      <c r="AP34" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP34" s="7" t="e">
         <f t="shared" ref="AP34:AP35" si="113">$N36/R36</f>
-        <v>1.1888888888888889</v>
-      </c>
-      <c r="AQ34" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ34" s="7" t="e">
         <f t="shared" ref="AQ34" si="114">$N36/S36</f>
-        <v>1.1905424200278165</v>
-      </c>
-      <c r="AR34" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR34" s="7" t="e">
         <f t="shared" ref="AR34:AR35" si="115">$N36/T36</f>
-        <v>1.1839557399723375</v>
-      </c>
-      <c r="AS34" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS34" s="7" t="e">
         <f t="shared" ref="AS34:AS35" si="116">$N36/U36</f>
-        <v>1.1938633193863319</v>
-      </c>
-      <c r="AT34" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT34" s="7" t="e">
         <f>$N36/V36</f>
-        <v>1.1888888888888889</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.25">
@@ -9734,177 +9865,159 @@
         <v>2</v>
       </c>
       <c r="B35" s="4">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C35" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D35" s="4">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E35" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F35" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G35" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H35" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I35" s="4">
         <v>57</v>
       </c>
       <c r="J35" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M35" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N35" s="4">
-        <v>675.6</v>
-      </c>
-      <c r="O35" s="4">
-        <v>670.2</v>
-      </c>
-      <c r="P35" s="4">
-        <v>670.2</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>669</v>
-      </c>
-      <c r="R35" s="4">
-        <v>670.2</v>
-      </c>
-      <c r="S35" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="T35" s="4">
-        <v>671.4</v>
-      </c>
-      <c r="U35" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="V35" s="4">
-        <v>671.4</v>
-      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
       <c r="Y35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z35" s="7">
         <f xml:space="preserve"> (B35 * N35) / 1000</f>
-        <v>33.78</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="7">
         <f t="shared" si="102"/>
-        <v>34.180200000000006</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="7">
         <f t="shared" si="103"/>
-        <v>34.8504</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="7">
         <f t="shared" si="104"/>
-        <v>36.125999999999998</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="7">
         <f t="shared" si="105"/>
-        <v>36.860999999999997</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="7">
         <f t="shared" si="106"/>
-        <v>38.235599999999998</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="7">
         <f t="shared" si="107"/>
-        <v>38.269799999999996</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="7">
         <f t="shared" si="108"/>
-        <v>38.235599999999998</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="7">
         <f t="shared" si="109"/>
-        <v>38.269799999999996</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL35" s="7">
+      <c r="AL35" s="7" t="e">
         <f>$N37/N37</f>
-        <v>1</v>
-      </c>
-      <c r="AM35" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM35" s="7" t="e">
         <f t="shared" si="110"/>
-        <v>1.0080572963294538</v>
-      </c>
-      <c r="AN35" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN35" s="7" t="e">
         <f t="shared" si="111"/>
-        <v>1.0080572963294538</v>
-      </c>
-      <c r="AO35" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO35" s="7" t="e">
         <f t="shared" si="112"/>
-        <v>1.0098654708520178</v>
-      </c>
-      <c r="AP35" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP35" s="7" t="e">
         <f t="shared" si="113"/>
-        <v>1.0080572963294538</v>
-      </c>
-      <c r="AQ35" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ35" s="7" t="e">
         <f>$N37/S37</f>
-        <v>1.0071556350626119</v>
-      </c>
-      <c r="AR35" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR35" s="7" t="e">
         <f t="shared" si="115"/>
-        <v>1.0062555853440571</v>
-      </c>
-      <c r="AS35" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS35" s="7" t="e">
         <f t="shared" si="116"/>
-        <v>1.0071556350626119</v>
-      </c>
-      <c r="AT35" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT35" s="7" t="e">
         <f>$N37/V37</f>
-        <v>1.0062555853440571</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N36" s="5">
         <f>N34/60</f>
-        <v>8.56</v>
+        <v>0</v>
       </c>
       <c r="O36" s="5">
         <f t="shared" ref="O36:V36" si="117">O34/60</f>
-        <v>7.02</v>
+        <v>0</v>
       </c>
       <c r="P36" s="5">
         <f t="shared" si="117"/>
-        <v>5.52</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="5">
         <f t="shared" si="117"/>
-        <v>7.28</v>
+        <v>0</v>
       </c>
       <c r="R36" s="5">
         <f t="shared" si="117"/>
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="S36" s="5">
         <f t="shared" si="117"/>
-        <v>7.19</v>
+        <v>0</v>
       </c>
       <c r="T36" s="5">
         <f t="shared" si="117"/>
-        <v>7.23</v>
+        <v>0</v>
       </c>
       <c r="U36" s="5">
         <f t="shared" si="117"/>
-        <v>7.17</v>
+        <v>0</v>
       </c>
       <c r="V36" s="5">
         <f t="shared" si="117"/>
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
@@ -9928,39 +10041,39 @@
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N37" s="5">
         <f>N35/60</f>
-        <v>11.26</v>
+        <v>0</v>
       </c>
       <c r="O37" s="5">
         <f t="shared" ref="O37:V37" si="118">O35/60</f>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="P37" s="5">
         <f t="shared" si="118"/>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="5">
         <f t="shared" si="118"/>
-        <v>11.15</v>
+        <v>0</v>
       </c>
       <c r="R37" s="5">
         <f t="shared" si="118"/>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="S37" s="5">
         <f t="shared" si="118"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="T37" s="5">
         <f t="shared" si="118"/>
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="U37" s="5">
         <f t="shared" si="118"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="V37" s="5">
         <f t="shared" si="118"/>
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
@@ -10108,139 +10221,121 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>64.5</v>
+        <v>57</v>
       </c>
       <c r="C39" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D39" s="3">
-        <v>67.5</v>
+        <v>71</v>
       </c>
       <c r="E39" s="3">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F39" s="3">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G39" s="3">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H39" s="3">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I39" s="3">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J39" s="3">
-        <v>64.5</v>
+        <v>72</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N39" s="3">
-        <v>494.40000000000003</v>
-      </c>
-      <c r="O39" s="3">
-        <v>390.59999999999997</v>
-      </c>
-      <c r="P39" s="3">
-        <v>331.8</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>391.8</v>
-      </c>
-      <c r="R39" s="3">
-        <v>426.6</v>
-      </c>
-      <c r="S39" s="3">
-        <v>431.40000000000003</v>
-      </c>
-      <c r="T39" s="3">
-        <v>426.6</v>
-      </c>
-      <c r="U39" s="3">
-        <v>424.20000000000005</v>
-      </c>
-      <c r="V39" s="3">
-        <v>429</v>
-      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
       <c r="Y39" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z39" s="7">
         <f xml:space="preserve"> (B39 * N39) / 1000</f>
-        <v>31.888800000000003</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="7">
         <f t="shared" ref="AA39:AA40" si="119" xml:space="preserve"> (C39 * O39) / 1000</f>
-        <v>25.779599999999999</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="7">
         <f t="shared" ref="AB39:AB40" si="120" xml:space="preserve"> (D39 * P39) / 1000</f>
-        <v>22.3965</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="7">
         <f t="shared" ref="AC39:AC40" si="121" xml:space="preserve"> (E39 * Q39) / 1000</f>
-        <v>25.858799999999999</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="7">
         <f t="shared" ref="AD39:AD40" si="122" xml:space="preserve"> (F39 * R39) / 1000</f>
-        <v>28.155600000000003</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="7">
         <f t="shared" ref="AE39:AE40" si="123" xml:space="preserve"> (G39 * S39) / 1000</f>
-        <v>28.4724</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="7">
         <f t="shared" ref="AF39:AF40" si="124" xml:space="preserve"> (H39 * T39) / 1000</f>
-        <v>27.728999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="7">
         <f t="shared" ref="AG39:AG40" si="125" xml:space="preserve"> (I39 * U39) / 1000</f>
-        <v>27.573000000000004</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="7">
         <f t="shared" ref="AH39:AH40" si="126" xml:space="preserve"> (J39 * V39) / 1000</f>
-        <v>27.670500000000001</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL39" s="7">
+      <c r="AL39" s="7" t="e">
         <f>$N41/N41</f>
-        <v>1</v>
-      </c>
-      <c r="AM39" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM39" s="7" t="e">
         <f t="shared" ref="AM39:AM40" si="127">$N41/O41</f>
-        <v>1.2657450076804917</v>
-      </c>
-      <c r="AN39" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN39" s="7" t="e">
         <f t="shared" ref="AN39:AN40" si="128">$N41/P41</f>
-        <v>1.4900542495479203</v>
-      </c>
-      <c r="AO39" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO39" s="7" t="e">
         <f t="shared" ref="AO39:AO40" si="129">$N41/Q41</f>
-        <v>1.2618683001531394</v>
-      </c>
-      <c r="AP39" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP39" s="7" t="e">
         <f t="shared" ref="AP39:AP40" si="130">$N41/R41</f>
-        <v>1.1589310829817159</v>
-      </c>
-      <c r="AQ39" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ39" s="7" t="e">
         <f t="shared" ref="AQ39" si="131">$N41/S41</f>
-        <v>1.1460361613351877</v>
-      </c>
-      <c r="AR39" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR39" s="7" t="e">
         <f t="shared" ref="AR39:AR40" si="132">$N41/T41</f>
-        <v>1.1589310829817159</v>
-      </c>
-      <c r="AS39" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS39" s="7" t="e">
         <f t="shared" ref="AS39:AS40" si="133">$N41/U41</f>
-        <v>1.1654879773691653</v>
-      </c>
-      <c r="AT39" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT39" s="7" t="e">
         <f>$N41/V41</f>
-        <v>1.1524475524475524</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
@@ -10248,16 +10343,16 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>54.5</v>
+        <v>55</v>
       </c>
       <c r="C40" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D40" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E40" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F40" s="4">
         <v>57</v>
@@ -10277,186 +10372,168 @@
       <c r="M40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N40" s="4">
-        <v>679.2</v>
-      </c>
-      <c r="O40" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="P40" s="4">
-        <v>669</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>668.40000000000009</v>
-      </c>
-      <c r="R40" s="4">
-        <v>681</v>
-      </c>
-      <c r="S40" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="T40" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="U40" s="4">
-        <v>671.4</v>
-      </c>
-      <c r="V40" s="4">
-        <v>679.8</v>
-      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
       <c r="Y40" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z40" s="7">
         <f xml:space="preserve"> (B40 * N40) / 1000</f>
-        <v>37.016400000000004</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="7">
         <f t="shared" si="119"/>
-        <v>37.564799999999998</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="7">
         <f t="shared" si="120"/>
-        <v>37.463999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="7">
         <f t="shared" si="121"/>
-        <v>37.430400000000006</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="7">
         <f t="shared" si="122"/>
-        <v>38.817</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="7">
         <f t="shared" si="123"/>
-        <v>38.235599999999998</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="7">
         <f t="shared" si="124"/>
-        <v>38.235599999999998</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="7">
         <f t="shared" si="125"/>
-        <v>38.269799999999996</v>
+        <v>0</v>
       </c>
       <c r="AH40" s="7">
         <f t="shared" si="126"/>
-        <v>38.748599999999996</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL40" s="7">
+      <c r="AL40" s="7" t="e">
         <f>$N42/N42</f>
-        <v>1</v>
-      </c>
-      <c r="AM40" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM40" s="7" t="e">
         <f t="shared" si="127"/>
-        <v>1.0125223613595706</v>
-      </c>
-      <c r="AN40" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN40" s="7" t="e">
         <f t="shared" si="128"/>
-        <v>1.0152466367713004</v>
-      </c>
-      <c r="AO40" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO40" s="7" t="e">
         <f t="shared" si="129"/>
-        <v>1.016157989228007</v>
-      </c>
-      <c r="AP40" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP40" s="7" t="e">
         <f t="shared" si="130"/>
-        <v>0.99735682819383265</v>
-      </c>
-      <c r="AQ40" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ40" s="7" t="e">
         <f>$N42/S42</f>
-        <v>1.0125223613595706</v>
-      </c>
-      <c r="AR40" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR40" s="7" t="e">
         <f t="shared" si="132"/>
-        <v>1.0125223613595706</v>
-      </c>
-      <c r="AS40" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS40" s="7" t="e">
         <f t="shared" si="133"/>
-        <v>1.0116175156389635</v>
-      </c>
-      <c r="AT40" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT40" s="7" t="e">
         <f>$N42/V42</f>
-        <v>0.99911738746690204</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N41" s="5">
         <f>N39/60</f>
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="O41" s="5">
         <f t="shared" ref="O41:V41" si="134">O39/60</f>
-        <v>6.51</v>
+        <v>0</v>
       </c>
       <c r="P41" s="5">
         <f t="shared" si="134"/>
-        <v>5.53</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="5">
         <f t="shared" si="134"/>
-        <v>6.53</v>
+        <v>0</v>
       </c>
       <c r="R41" s="5">
         <f t="shared" si="134"/>
-        <v>7.11</v>
+        <v>0</v>
       </c>
       <c r="S41" s="5">
         <f t="shared" si="134"/>
-        <v>7.19</v>
+        <v>0</v>
       </c>
       <c r="T41" s="5">
         <f t="shared" si="134"/>
-        <v>7.11</v>
+        <v>0</v>
       </c>
       <c r="U41" s="5">
         <f t="shared" si="134"/>
-        <v>7.0700000000000012</v>
+        <v>0</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" si="134"/>
-        <v>7.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N42" s="5">
         <f>N40/60</f>
-        <v>11.32</v>
+        <v>0</v>
       </c>
       <c r="O42" s="5">
         <f t="shared" ref="O42:V42" si="135">O40/60</f>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="P42" s="5">
         <f t="shared" si="135"/>
-        <v>11.15</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="5">
         <f t="shared" si="135"/>
-        <v>11.140000000000002</v>
+        <v>0</v>
       </c>
       <c r="R42" s="5">
         <f t="shared" si="135"/>
-        <v>11.35</v>
+        <v>0</v>
       </c>
       <c r="S42" s="5">
         <f t="shared" si="135"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="T42" s="5">
         <f t="shared" si="135"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="U42" s="5">
         <f t="shared" si="135"/>
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" si="135"/>
-        <v>11.33</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
